--- a/Arima_solcell/Arima.xlsx
+++ b/Arima_solcell/Arima.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.982612158700375</v>
+        <v>17.11031476734135</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.374391622613483</v>
+        <v>9.708445526518515</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.65134220420175</v>
+        <v>15.62915665634425</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.85938183986344</v>
+        <v>38.86317573873281</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.432740493741345</v>
+        <v>14.51363931025324</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.92655469819085</v>
+        <v>51.27728184412885</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.019736066155</v>
+        <v>12.76536438015919</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.88704913214845</v>
+        <v>12.30511726853055</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.850807656682142</v>
+        <v>12.4147895012982</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.77723396774867</v>
+        <v>47.50107722346389</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.80196498532024</v>
+        <v>38.36962954279451</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.308827529195658</v>
+        <v>12.03070941779286</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.2163668348558</v>
+        <v>34.97526057471821</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.845288119923216</v>
+        <v>11.07326766111269</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.56993240331507</v>
+        <v>22.35544784737779</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.96704842508885</v>
+        <v>10.26641638404834</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.71349631720197</v>
+        <v>50.85083335767342</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.4237893884741</v>
+        <v>17.5266002603075</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.90122427424153</v>
+        <v>34.9765740436435</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.767357107702452</v>
+        <v>40.86506582100701</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.27639403459375</v>
+        <v>31.53609219741987</v>
       </c>
     </row>
   </sheetData>
